--- a/運動状態/運動状態up2.xlsx
+++ b/運動状態/運動状態up2.xlsx
@@ -5,23 +5,59 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smalab\Desktop\kubo\姿勢遷移\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smalab\Desktop\kubo\運動状態\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="log＿up" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$B$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$B$84</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="8">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ｘ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ｙ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ｚ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ｘ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ｚ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ｙ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ｚ</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -676,6 +712,3408 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｘ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｙ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｚ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="246471328"/>
+        <c:axId val="246480032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="246471328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246480032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246480032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246471328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｘ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$6:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｙ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｚ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$8:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="161307072"/>
+        <c:axId val="161304352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="161307072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="161304352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="161304352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="161307072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｘ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$6:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｙ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$7:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ｚ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$8:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="154913440"/>
+        <c:axId val="154910720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154913440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154910720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154910720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154913440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -939,13 +4377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB3"/>
+  <dimension ref="A1:CN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -971,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <v>-10</v>
@@ -983,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N1">
         <v>-10</v>
@@ -995,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1">
         <v>-10</v>
@@ -1007,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1">
         <v>-10</v>
@@ -1019,58 +4459,58 @@
         <v>0</v>
       </c>
       <c r="Y1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z1">
-        <v>-10</v>
+        <v>-42</v>
       </c>
       <c r="AA1">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="AB1" t="s">
         <v>0</v>
       </c>
       <c r="AC1">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD1">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="AE1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF1" t="s">
         <v>0</v>
       </c>
       <c r="AG1">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="AH1">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="AI1">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="AJ1" t="s">
         <v>0</v>
       </c>
       <c r="AK1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AM1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AN1" t="s">
         <v>0</v>
       </c>
       <c r="AO1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP1">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="AQ1">
         <v>4</v>
@@ -1079,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="AS1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT1">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="AU1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV1" t="s">
         <v>0</v>
@@ -1097,19 +4537,19 @@
         <v>-10</v>
       </c>
       <c r="AY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1" t="s">
         <v>0</v>
       </c>
       <c r="BA1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB1">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="BC1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD1" t="s">
         <v>0</v>
@@ -1145,187 +4585,91 @@
         <v>-10</v>
       </c>
       <c r="BO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP1" t="s">
         <v>0</v>
       </c>
       <c r="BQ1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BR1">
         <v>-10</v>
       </c>
       <c r="BS1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT1" t="s">
         <v>0</v>
       </c>
-      <c r="BU1">
-        <v>-1</v>
-      </c>
-      <c r="BV1">
-        <v>-10</v>
-      </c>
-      <c r="BW1">
-        <v>1</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY1">
-        <v>-1</v>
-      </c>
-      <c r="BZ1">
-        <v>-10</v>
-      </c>
-      <c r="CA1">
-        <v>1</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC1">
-        <v>-1</v>
-      </c>
-      <c r="CD1">
-        <v>-9</v>
-      </c>
-      <c r="CE1">
-        <v>1</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG1">
-        <v>0</v>
-      </c>
-      <c r="CH1">
-        <v>-10</v>
-      </c>
-      <c r="CI1">
-        <v>0</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK1">
-        <v>0</v>
-      </c>
-      <c r="CL1">
-        <v>-10</v>
-      </c>
-      <c r="CM1">
-        <v>0</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO1">
-        <v>0</v>
-      </c>
-      <c r="CP1">
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-10</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-10</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>-10</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>-10</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>-10</v>
+      </c>
+      <c r="S2">
+        <v>-1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>-11</v>
       </c>
-      <c r="CQ1">
-        <v>0</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS1">
-        <v>0</v>
-      </c>
-      <c r="CT1">
-        <v>-11</v>
-      </c>
-      <c r="CU1">
-        <v>0</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW1">
-        <v>0</v>
-      </c>
-      <c r="CX1">
-        <v>-10</v>
-      </c>
-      <c r="CY1">
-        <v>-1</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-10</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>-10</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>-10</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>-10</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>-10</v>
-      </c>
-      <c r="S2">
-        <v>-1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>-10</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
@@ -1333,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>-12</v>
+        <v>-29</v>
       </c>
       <c r="AA2">
         <v>-2</v>
@@ -1345,50 +4689,50 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD2">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="AE2">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AF2" t="s">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="s">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="AM2">
+        <v>-4</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>-1</v>
+      </c>
+      <c r="AP2">
+        <v>-9</v>
+      </c>
+      <c r="AQ2">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>-1</v>
-      </c>
-      <c r="AP2">
-        <v>-10</v>
-      </c>
-      <c r="AQ2">
-        <v>-1</v>
-      </c>
       <c r="AR2" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +4743,7 @@
         <v>-10</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="s">
         <v>0</v>
@@ -1411,7 +4755,7 @@
         <v>-10</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="s">
         <v>0</v>
@@ -1423,13 +4767,13 @@
         <v>-10</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="s">
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>-10</v>
@@ -1441,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
         <v>-10</v>
@@ -1459,19 +4803,19 @@
         <v>-10</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2" t="s">
         <v>0</v>
       </c>
       <c r="BQ2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
         <v>-10</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" t="s">
         <v>0</v>
@@ -1483,7 +4827,7 @@
         <v>-10</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BX2" t="s">
         <v>0</v>
@@ -1500,34 +4844,70 @@
       <c r="CB2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.15">
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>-10</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>-1</v>
+      </c>
+      <c r="CH2">
+        <v>-10</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>-9</v>
+      </c>
+      <c r="CM2">
+        <v>-1</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>-10</v>
@@ -1539,31 +4919,31 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T3" t="s">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>-10</v>
@@ -1575,25 +4955,25 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z3">
-        <v>-10</v>
+        <v>-26</v>
       </c>
       <c r="AA3">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB3" t="s">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="AE3">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="AF3" t="s">
         <v>0</v>
@@ -1602,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="AI3">
         <v>-2</v>
@@ -1611,58 +4991,58 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AL3">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="AM3">
+        <v>-10</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>-7</v>
+      </c>
+      <c r="AP3">
+        <v>-6</v>
+      </c>
+      <c r="AQ3">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>-3</v>
       </c>
-      <c r="AN3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
+      <c r="AT3">
         <v>-9</v>
       </c>
-      <c r="AQ3">
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>-1</v>
+      </c>
+      <c r="AX3">
+        <v>-10</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3">
         <v>-2</v>
       </c>
-      <c r="AR3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>3</v>
-      </c>
-      <c r="AT3">
-        <v>-34</v>
-      </c>
-      <c r="AU3">
-        <v>-20</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>10</v>
-      </c>
-      <c r="AY3">
-        <v>4</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
       <c r="BB3">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="BC3">
         <v>1</v>
@@ -1674,10 +5054,10 @@
         <v>-1</v>
       </c>
       <c r="BF3">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="BG3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH3" t="s">
         <v>0</v>
@@ -1707,25 +5087,25 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BT3" t="s">
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>-10</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BX3" t="s">
         <v>0</v>
@@ -1737,7 +5117,7 @@
         <v>-10</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CB3" t="s">
         <v>0</v>
@@ -1749,153 +5129,9 @@
         <v>-10</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>-1</v>
-      </c>
-      <c r="CH3">
-        <v>-10</v>
-      </c>
-      <c r="CI3">
-        <v>1</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>-1</v>
-      </c>
-      <c r="CL3">
-        <v>-10</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>-1</v>
-      </c>
-      <c r="CP3">
-        <v>-9</v>
-      </c>
-      <c r="CQ3">
-        <v>1</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>-1</v>
-      </c>
-      <c r="CT3">
-        <v>-8</v>
-      </c>
-      <c r="CU3">
-        <v>1</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>-1</v>
-      </c>
-      <c r="CX3">
-        <v>-8</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DA3">
-        <v>-1</v>
-      </c>
-      <c r="DB3">
-        <v>-7</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>4</v>
-      </c>
-      <c r="DF3">
-        <v>-11</v>
-      </c>
-      <c r="DG3">
-        <v>-2</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DI3">
-        <v>3</v>
-      </c>
-      <c r="DJ3">
-        <v>-13</v>
-      </c>
-      <c r="DK3">
-        <v>-4</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM3">
-        <v>1</v>
-      </c>
-      <c r="DN3">
-        <v>-12</v>
-      </c>
-      <c r="DO3">
-        <v>-3</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ3">
-        <v>0</v>
-      </c>
-      <c r="DR3">
-        <v>-10</v>
-      </c>
-      <c r="DS3">
-        <v>-1</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU3">
-        <v>-1</v>
-      </c>
-      <c r="DV3">
-        <v>-9</v>
-      </c>
-      <c r="DW3">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DY3">
-        <v>-1</v>
-      </c>
-      <c r="DZ3">
-        <v>-9</v>
-      </c>
-      <c r="EA3">
-        <v>1</v>
-      </c>
-      <c r="EB3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1903,4 +5139,3363 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>-2</v>
+      </c>
+      <c r="N1">
+        <v>-8</v>
+      </c>
+      <c r="O1">
+        <v>-1</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>-1</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>-1</v>
+      </c>
+      <c r="U1">
+        <v>-1</v>
+      </c>
+      <c r="V1">
+        <v>-1</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>-10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>-10</v>
+      </c>
+      <c r="G2">
+        <v>-10</v>
+      </c>
+      <c r="H2">
+        <v>-10</v>
+      </c>
+      <c r="I2">
+        <v>-10</v>
+      </c>
+      <c r="J2">
+        <v>-10</v>
+      </c>
+      <c r="K2">
+        <v>-10</v>
+      </c>
+      <c r="L2">
+        <v>-42</v>
+      </c>
+      <c r="M2">
+        <v>-4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <v>-6</v>
+      </c>
+      <c r="Q2">
+        <v>-10</v>
+      </c>
+      <c r="R2">
+        <v>-10</v>
+      </c>
+      <c r="S2">
+        <v>-10</v>
+      </c>
+      <c r="T2">
+        <v>-10</v>
+      </c>
+      <c r="U2">
+        <v>-10</v>
+      </c>
+      <c r="V2">
+        <v>-10</v>
+      </c>
+      <c r="W2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-7</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>-10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>F1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:W9" si="0">G1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:U9" si="1">F2/10</f>
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>-4.2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>-10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>-10</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>-10</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>-10</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>-42</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>-7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>-2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>-4</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>-8</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>-10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>-10</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>-10</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>-1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>-10</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B72"/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:AB8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>-1</v>
+      </c>
+      <c r="Q1">
+        <v>-1</v>
+      </c>
+      <c r="R1">
+        <v>-1</v>
+      </c>
+      <c r="S1">
+        <v>-1</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>-1</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>-1</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>-1</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>-10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>-10</v>
+      </c>
+      <c r="G2">
+        <v>-10</v>
+      </c>
+      <c r="H2">
+        <v>-10</v>
+      </c>
+      <c r="I2">
+        <v>-10</v>
+      </c>
+      <c r="J2">
+        <v>-10</v>
+      </c>
+      <c r="K2">
+        <v>-11</v>
+      </c>
+      <c r="L2">
+        <v>-29</v>
+      </c>
+      <c r="M2">
+        <v>-16</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <v>-9</v>
+      </c>
+      <c r="Q2">
+        <v>-10</v>
+      </c>
+      <c r="R2">
+        <v>-10</v>
+      </c>
+      <c r="S2">
+        <v>-10</v>
+      </c>
+      <c r="T2">
+        <v>-10</v>
+      </c>
+      <c r="U2">
+        <v>-10</v>
+      </c>
+      <c r="V2">
+        <v>-10</v>
+      </c>
+      <c r="W2">
+        <v>-10</v>
+      </c>
+      <c r="X2">
+        <v>-10</v>
+      </c>
+      <c r="Y2">
+        <v>-10</v>
+      </c>
+      <c r="Z2">
+        <v>-10</v>
+      </c>
+      <c r="AA2">
+        <v>-10</v>
+      </c>
+      <c r="AB2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-2</v>
+      </c>
+      <c r="M3">
+        <v>-6</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>-4</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>-10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>F1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:AB8" si="0">G1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:U8" si="1">F2/10</f>
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>-2.9</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-0.9</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>-10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>-10</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>-10</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>-11</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>-29</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>-2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>-16</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>-6</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>-4</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>-9</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>-10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>-1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>-10</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>-10</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>-10</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>-1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>-10</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>-1</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>-10</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>-10</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>-1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>-10</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>-9</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>-1</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B92"/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>-1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>-1</v>
+      </c>
+      <c r="P1">
+        <v>-7</v>
+      </c>
+      <c r="Q1">
+        <v>-3</v>
+      </c>
+      <c r="R1">
+        <v>-1</v>
+      </c>
+      <c r="S1">
+        <v>-2</v>
+      </c>
+      <c r="T1">
+        <v>-1</v>
+      </c>
+      <c r="U1">
+        <v>-1</v>
+      </c>
+      <c r="V1">
+        <v>-1</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>-1</v>
+      </c>
+      <c r="Z1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>-9</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>-9</v>
+      </c>
+      <c r="G2">
+        <v>-9</v>
+      </c>
+      <c r="H2">
+        <v>-10</v>
+      </c>
+      <c r="I2">
+        <v>-10</v>
+      </c>
+      <c r="J2">
+        <v>-10</v>
+      </c>
+      <c r="K2">
+        <v>-10</v>
+      </c>
+      <c r="L2">
+        <v>-26</v>
+      </c>
+      <c r="M2">
+        <v>-17</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>-6</v>
+      </c>
+      <c r="Q2">
+        <v>-9</v>
+      </c>
+      <c r="R2">
+        <v>-10</v>
+      </c>
+      <c r="S2">
+        <v>-10</v>
+      </c>
+      <c r="T2">
+        <v>-10</v>
+      </c>
+      <c r="U2">
+        <v>-10</v>
+      </c>
+      <c r="V2">
+        <v>-10</v>
+      </c>
+      <c r="W2">
+        <v>-10</v>
+      </c>
+      <c r="X2">
+        <v>-10</v>
+      </c>
+      <c r="Y2">
+        <v>-10</v>
+      </c>
+      <c r="Z2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-5</v>
+      </c>
+      <c r="N3">
+        <v>-2</v>
+      </c>
+      <c r="O3">
+        <v>-10</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>-9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>F1/10</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:Z8" si="0">G1/10</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:U8" si="1">F2/10</f>
+        <v>-0.9</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-0.9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>-2.6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>-1.7</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>-0.9</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>-10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>-10</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>-10</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>-10</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>-26</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>-17</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>-5</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>-2</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>-10</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>-7</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>-3</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>-9</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>-2</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>-10</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>-10</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>-1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>-10</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>-1</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>-10</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>-1</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>-1</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>-10</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>-1</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>-1</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>-10</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B84"/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>